--- a/設計書/画面レイアウト/ホーム画面.xlsx
+++ b/設計書/画面レイアウト/ホーム画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makam\Desktop\nuko\設計書\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makam\Desktop\nuko\設計書\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8EF661-B162-488B-B9F7-CB17B0B3372C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813153DB-8753-49CE-BA37-99F272BFCFBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ホーム" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ホーム!$A$1:$AK$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ホーム!$A$1:$AK$59</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ホーム!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -244,22 +244,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>→popで「追加しました」と表示、トーク画面に追加される</t>
-    <rPh sb="6" eb="8">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>→リクエストの表示を削除する</t>
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
@@ -305,8 +289,125 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>最新のリクエストが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加/承認されたらpopで表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロフィール画像を表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トーク画面に追加されるボタン</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストを削除する</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pop</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→トーク画面へ遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→popで「〇〇さんを追加しました！」と表示、トーク画面に追加される</t>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <t>→リクエストを送った側には「承認されました」と表示（</t>
+      <t>→リクエストを送った側には「マッチングしました！」と表示（</t>
     </r>
     <r>
       <rPr>
@@ -333,116 +434,66 @@
     <rPh sb="10" eb="11">
       <t>ガワ</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
+    <rPh sb="26" eb="28">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>最新のリクエストが表示される</t>
-    <rPh sb="0" eb="2">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
+    <t>「マッチングしました！」を押下</t>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>追加/承認通知</t>
+    <t>追加通知</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="2" eb="4">
       <t>ツウチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>追加/承認されたらpopで表示される</t>
+    <t>承認通知</t>
     <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
       <t>ショウニン</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
+    <rPh sb="2" eb="4">
+      <t>ツウチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロフィール画像を表示される</t>
-    <rPh sb="6" eb="8">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
+    <t>pop/ボタン</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名前を表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
+    <t>トーク画面</t>
     <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>トーク画面に追加されるボタン</t>
-    <rPh sb="3" eb="5">
+    <t>承認されたらpopで表示される、押下でトーク画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リクエストを削除する</t>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pop</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画像</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -724,13 +775,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,21 +815,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,17 +859,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2109,7 +2160,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
-            <a:t>ニックネーム</a:t>
+            <a:t>名前</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2324,7 +2375,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
-            <a:t>ニックネーム</a:t>
+            <a:t>名前</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2517,7 +2568,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>追加しました　</a:t>
+            <a:t>〇〇さんを追加しました！　</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3759,9 +3810,214 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マッチング</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>承認されました　</a:t>
+            <a:t>しました！</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B11960B-C21C-42BA-B110-44E633429AB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6276975" y="1866900"/>
+          <a:ext cx="4114800" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1D22E5-130F-4ED2-A4D3-DBA86D2F1DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10439400" y="2105025"/>
+          <a:ext cx="161925" cy="85528"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>172917</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129AB9AF-AA0C-4688-950D-4B38D65207A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10525125" y="1905000"/>
+          <a:ext cx="334842" cy="252830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4067,10 +4323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
-  <dimension ref="A1:AQ61"/>
+  <dimension ref="A1:AQ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -4084,45 +4340,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -4164,59 +4420,59 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="54" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="54" t="s">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="54" t="s">
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="54" t="s">
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="54" t="s">
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="54" t="s">
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="56"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="28"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
       <c r="A4" s="40" t="s">
@@ -4262,16 +4518,16 @@
       </c>
       <c r="AD4" s="41"/>
       <c r="AE4" s="42"/>
-      <c r="AF4" s="28" t="s">
+      <c r="AF4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="28" t="s">
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="30"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="35"/>
     </row>
     <row r="5" spans="1:37" ht="12">
       <c r="A5" s="40"/>
@@ -4305,12 +4561,12 @@
       <c r="AC5" s="46"/>
       <c r="AD5" s="43"/>
       <c r="AE5" s="44"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="33"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="38"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -4496,7 +4752,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -4575,7 +4831,7 @@
       <c r="R12" s="10"/>
       <c r="S12" s="9"/>
       <c r="U12" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -4738,8 +4994,12 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+      <c r="T17" s="9">
+        <v>3</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -4777,11 +5037,9 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="10"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="9">
-        <v>2</v>
-      </c>
+      <c r="T18" s="9"/>
       <c r="U18" s="9" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
@@ -4821,9 +5079,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
@@ -4861,8 +5117,12 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="10"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+      <c r="T20" s="9">
+        <v>2</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
@@ -4901,7 +5161,9 @@
       <c r="R21" s="10"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
+      <c r="U21" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
@@ -5727,61 +5989,61 @@
       <c r="AK42" s="16"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="28" t="s">
+      <c r="B43" s="35"/>
+      <c r="C43" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="28" t="s">
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="28" t="s">
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N43" s="30"/>
-      <c r="O43" s="28" t="s">
+      <c r="N43" s="35"/>
+      <c r="O43" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="38" t="s">
+      <c r="P43" s="35"/>
+      <c r="Q43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R43" s="38"/>
-      <c r="S43" s="28" t="s">
+      <c r="R43" s="32"/>
+      <c r="S43" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="T43" s="29"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="28" t="s">
+      <c r="T43" s="34"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W43" s="29"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="28" t="s">
+      <c r="W43" s="34"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="29"/>
-      <c r="AI43" s="29"/>
-      <c r="AJ43" s="29"/>
-      <c r="AK43" s="30"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="34"/>
+      <c r="AH43" s="34"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="35"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -5790,43 +6052,43 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="32"/>
-      <c r="AB44" s="32"/>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="32"/>
-      <c r="AE44" s="32"/>
-      <c r="AF44" s="32"/>
-      <c r="AG44" s="32"/>
-      <c r="AH44" s="32"/>
-      <c r="AI44" s="32"/>
-      <c r="AJ44" s="32"/>
-      <c r="AK44" s="33"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="38"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -5835,61 +6097,61 @@
       <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="25">
+      <c r="A45" s="29">
         <v>1</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="25" t="s">
+      <c r="B45" s="30"/>
+      <c r="C45" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="27"/>
-      <c r="O45" s="25">
+      <c r="N45" s="30"/>
+      <c r="O45" s="29">
         <v>128</v>
       </c>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="38" t="s">
+      <c r="P45" s="30"/>
+      <c r="Q45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="38"/>
-      <c r="S45" s="25" t="s">
+      <c r="R45" s="32"/>
+      <c r="S45" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="26"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="25" t="s">
+      <c r="T45" s="31"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="26"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="27"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+      <c r="AI45" s="31"/>
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="30"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -5898,61 +6160,61 @@
       <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="25">
+      <c r="A46" s="29">
         <v>2</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="25" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="27"/>
-      <c r="O46" s="25">
+      <c r="N46" s="30"/>
+      <c r="O46" s="29">
         <v>128</v>
       </c>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="38" t="s">
+      <c r="P46" s="30"/>
+      <c r="Q46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="38"/>
-      <c r="S46" s="25" t="s">
+      <c r="R46" s="32"/>
+      <c r="S46" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="26"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="25" t="s">
+      <c r="T46" s="31"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="W46" s="26"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="27"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="31"/>
+      <c r="AG46" s="31"/>
+      <c r="AH46" s="31"/>
+      <c r="AI46" s="31"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="30"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -5961,61 +6223,61 @@
       <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="25">
-        <v>3</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="N47" s="27"/>
-      <c r="O47" s="25" t="s">
+      <c r="A47" s="29">
+        <v>2</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="38" t="s">
+      <c r="N47" s="30"/>
+      <c r="O47" s="29">
+        <v>128</v>
+      </c>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="38"/>
-      <c r="S47" s="25" t="s">
+      <c r="R47" s="32"/>
+      <c r="S47" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="26"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="W47" s="26"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="27"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W47" s="31"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="31"/>
+      <c r="AH47" s="31"/>
+      <c r="AI47" s="31"/>
+      <c r="AJ47" s="31"/>
+      <c r="AK47" s="30"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -6024,61 +6286,61 @@
       <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="25">
-        <v>4</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="25" t="s">
+      <c r="A48" s="29">
+        <v>3</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="N48" s="27"/>
-      <c r="O48" s="25">
-        <v>128</v>
-      </c>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="25" t="s">
+      <c r="N48" s="30"/>
+      <c r="O48" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="27"/>
-      <c r="S48" s="25" t="s">
+      <c r="P48" s="30"/>
+      <c r="Q48" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="26"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="25" t="s">
+      <c r="R48" s="32"/>
+      <c r="S48" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="W48" s="26"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="27"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="W48" s="31"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="31"/>
+      <c r="AG48" s="31"/>
+      <c r="AH48" s="31"/>
+      <c r="AI48" s="31"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="30"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -6087,61 +6349,61 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="25">
-        <v>5</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="25" t="s">
+      <c r="A49" s="29">
+        <v>4</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N49" s="30"/>
+      <c r="O49" s="29">
+        <v>128</v>
+      </c>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="27"/>
-      <c r="O49" s="25" t="s">
+      <c r="R49" s="30"/>
+      <c r="S49" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="38" t="s">
+      <c r="T49" s="31"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="38"/>
-      <c r="S49" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="T49" s="26"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="W49" s="26"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="26"/>
-      <c r="AK49" s="27"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z49" s="31"/>
+      <c r="AA49" s="31"/>
+      <c r="AB49" s="31"/>
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="31"/>
+      <c r="AF49" s="31"/>
+      <c r="AG49" s="31"/>
+      <c r="AH49" s="31"/>
+      <c r="AI49" s="31"/>
+      <c r="AJ49" s="31"/>
+      <c r="AK49" s="30"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -6150,61 +6412,61 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="25">
-        <v>6</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="25" t="s">
+      <c r="A50" s="29">
+        <v>5</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="27"/>
-      <c r="O50" s="25" t="s">
+      <c r="N50" s="30"/>
+      <c r="O50" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="38" t="s">
+      <c r="P50" s="30"/>
+      <c r="Q50" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="38"/>
-      <c r="S50" s="25" t="s">
+      <c r="R50" s="32"/>
+      <c r="S50" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T50" s="26"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="W50" s="26"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="27"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="W50" s="31"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="31"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="31"/>
+      <c r="AI50" s="31"/>
+      <c r="AJ50" s="31"/>
+      <c r="AK50" s="30"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
@@ -6213,43 +6475,61 @@
       <c r="AQ50" s="24"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="27"/>
+      <c r="A51" s="29">
+        <v>6</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" s="30"/>
+      <c r="O51" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R51" s="32"/>
+      <c r="S51" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T51" s="31"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="W51" s="31"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="31"/>
+      <c r="AH51" s="31"/>
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="31"/>
+      <c r="AK51" s="30"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
@@ -6258,43 +6538,43 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="25"/>
-      <c r="W52" s="26"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="26"/>
-      <c r="AA52" s="26"/>
-      <c r="AB52" s="26"/>
-      <c r="AC52" s="26"/>
-      <c r="AD52" s="26"/>
-      <c r="AE52" s="26"/>
-      <c r="AF52" s="26"/>
-      <c r="AG52" s="26"/>
-      <c r="AH52" s="26"/>
-      <c r="AI52" s="26"/>
-      <c r="AJ52" s="26"/>
-      <c r="AK52" s="27"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="31"/>
+      <c r="AA52" s="31"/>
+      <c r="AB52" s="31"/>
+      <c r="AC52" s="31"/>
+      <c r="AD52" s="31"/>
+      <c r="AE52" s="31"/>
+      <c r="AF52" s="31"/>
+      <c r="AG52" s="31"/>
+      <c r="AH52" s="31"/>
+      <c r="AI52" s="31"/>
+      <c r="AJ52" s="31"/>
+      <c r="AK52" s="30"/>
       <c r="AL52" s="24"/>
       <c r="AM52" s="24"/>
       <c r="AN52" s="24"/>
@@ -6303,43 +6583,43 @@
       <c r="AQ52" s="24"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="25"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="26"/>
-      <c r="AH53" s="26"/>
-      <c r="AI53" s="26"/>
-      <c r="AJ53" s="26"/>
-      <c r="AK53" s="27"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="31"/>
+      <c r="AA53" s="31"/>
+      <c r="AB53" s="31"/>
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="31"/>
+      <c r="AE53" s="31"/>
+      <c r="AF53" s="31"/>
+      <c r="AG53" s="31"/>
+      <c r="AH53" s="31"/>
+      <c r="AI53" s="31"/>
+      <c r="AJ53" s="31"/>
+      <c r="AK53" s="30"/>
       <c r="AL53" s="24"/>
       <c r="AM53" s="24"/>
       <c r="AN53" s="24"/>
@@ -6348,214 +6628,383 @@
       <c r="AQ53" s="24"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="34"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="36"/>
-      <c r="AA54" s="36"/>
-      <c r="AB54" s="36"/>
-      <c r="AC54" s="36"/>
-      <c r="AD54" s="36"/>
-      <c r="AE54" s="36"/>
-      <c r="AF54" s="36"/>
-      <c r="AG54" s="36"/>
-      <c r="AH54" s="36"/>
-      <c r="AI54" s="36"/>
-      <c r="AJ54" s="36"/>
-      <c r="AK54" s="35"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="31"/>
+      <c r="AA54" s="31"/>
+      <c r="AB54" s="31"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="31"/>
+      <c r="AE54" s="31"/>
+      <c r="AF54" s="31"/>
+      <c r="AG54" s="31"/>
+      <c r="AH54" s="31"/>
+      <c r="AI54" s="31"/>
+      <c r="AJ54" s="31"/>
+      <c r="AK54" s="30"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="24"/>
+      <c r="AP54" s="24"/>
+      <c r="AQ54" s="24"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="36"/>
-      <c r="AI55" s="36"/>
-      <c r="AJ55" s="36"/>
-      <c r="AK55" s="35"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="55"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="55"/>
+      <c r="AA55" s="55"/>
+      <c r="AB55" s="55"/>
+      <c r="AC55" s="55"/>
+      <c r="AD55" s="55"/>
+      <c r="AE55" s="55"/>
+      <c r="AF55" s="55"/>
+      <c r="AG55" s="55"/>
+      <c r="AH55" s="55"/>
+      <c r="AI55" s="55"/>
+      <c r="AJ55" s="55"/>
+      <c r="AK55" s="54"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="36"/>
-      <c r="AA56" s="36"/>
-      <c r="AB56" s="36"/>
-      <c r="AC56" s="36"/>
-      <c r="AD56" s="36"/>
-      <c r="AE56" s="36"/>
-      <c r="AF56" s="36"/>
-      <c r="AG56" s="36"/>
-      <c r="AH56" s="36"/>
-      <c r="AI56" s="36"/>
-      <c r="AJ56" s="36"/>
-      <c r="AK56" s="35"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="55"/>
+      <c r="AB56" s="55"/>
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="55"/>
+      <c r="AG56" s="55"/>
+      <c r="AH56" s="55"/>
+      <c r="AI56" s="55"/>
+      <c r="AJ56" s="55"/>
+      <c r="AK56" s="54"/>
     </row>
     <row r="57" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A57" s="34"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="36"/>
-      <c r="AA57" s="36"/>
-      <c r="AB57" s="36"/>
-      <c r="AC57" s="36"/>
-      <c r="AD57" s="36"/>
-      <c r="AE57" s="36"/>
-      <c r="AF57" s="36"/>
-      <c r="AG57" s="36"/>
-      <c r="AH57" s="36"/>
-      <c r="AI57" s="36"/>
-      <c r="AJ57" s="36"/>
-      <c r="AK57" s="35"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="56"/>
+      <c r="W57" s="56"/>
+      <c r="X57" s="56"/>
+      <c r="Y57" s="53"/>
+      <c r="Z57" s="55"/>
+      <c r="AA57" s="55"/>
+      <c r="AB57" s="55"/>
+      <c r="AC57" s="55"/>
+      <c r="AD57" s="55"/>
+      <c r="AE57" s="55"/>
+      <c r="AF57" s="55"/>
+      <c r="AG57" s="55"/>
+      <c r="AH57" s="55"/>
+      <c r="AI57" s="55"/>
+      <c r="AJ57" s="55"/>
+      <c r="AK57" s="54"/>
     </row>
     <row r="58" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A58" s="34"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="36"/>
-      <c r="AB58" s="36"/>
-      <c r="AC58" s="36"/>
-      <c r="AD58" s="36"/>
-      <c r="AE58" s="36"/>
-      <c r="AF58" s="36"/>
-      <c r="AG58" s="36"/>
-      <c r="AH58" s="36"/>
-      <c r="AI58" s="36"/>
-      <c r="AJ58" s="36"/>
-      <c r="AK58" s="35"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="53"/>
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="55"/>
+      <c r="AB58" s="55"/>
+      <c r="AC58" s="55"/>
+      <c r="AD58" s="55"/>
+      <c r="AE58" s="55"/>
+      <c r="AF58" s="55"/>
+      <c r="AG58" s="55"/>
+      <c r="AH58" s="55"/>
+      <c r="AI58" s="55"/>
+      <c r="AJ58" s="55"/>
+      <c r="AK58" s="54"/>
     </row>
-    <row r="61" spans="1:43" ht="12.75" customHeight="1">
-      <c r="B61" s="17"/>
+    <row r="59" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A59" s="53"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="56"/>
+      <c r="W59" s="56"/>
+      <c r="X59" s="56"/>
+      <c r="Y59" s="53"/>
+      <c r="Z59" s="55"/>
+      <c r="AA59" s="55"/>
+      <c r="AB59" s="55"/>
+      <c r="AC59" s="55"/>
+      <c r="AD59" s="55"/>
+      <c r="AE59" s="55"/>
+      <c r="AF59" s="55"/>
+      <c r="AG59" s="55"/>
+      <c r="AH59" s="55"/>
+      <c r="AI59" s="55"/>
+      <c r="AJ59" s="55"/>
+      <c r="AK59" s="54"/>
+    </row>
+    <row r="62" spans="1:43" ht="12.75" customHeight="1">
+      <c r="B62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="153">
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+  <mergeCells count="162">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y43:AK44"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="S43:U44"/>
+    <mergeCell ref="V43:X44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AK59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AK58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AK57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="O47:P47"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="I45:L45"/>
@@ -6576,130 +7025,15 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AK57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AK58"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="S43:U44"/>
-    <mergeCell ref="V43:X44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y43:AK44"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/画面レイアウト/ホーム画面.xlsx
+++ b/設計書/画面レイアウト/ホーム画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makam\Desktop\nuko\設計書\設計書\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813153DB-8753-49CE-BA37-99F272BFCFBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681912BD-DF6D-4009-BCBC-EEF89C24F303}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム" sheetId="12" r:id="rId1"/>
@@ -204,16 +204,6 @@
   </si>
   <si>
     <t>ホーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9月9日</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -496,6 +486,10 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>2019/9/10</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -723,7 +717,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -775,18 +769,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,6 +798,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,17 +853,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4325,60 +4328,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.125" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08984375" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.08984375" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.08984375" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -4420,59 +4423,59 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="26" t="s">
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="26" t="s">
+      <c r="Q3" s="55"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="26" t="s">
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="26" t="s">
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="26" t="s">
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="28"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="56"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
       <c r="A4" s="40" t="s">
@@ -4486,7 +4489,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -4509,7 +4512,7 @@
       <c r="X4" s="48"/>
       <c r="Y4" s="49"/>
       <c r="Z4" s="45" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AA4" s="41"/>
       <c r="AB4" s="42"/>
@@ -4518,16 +4521,16 @@
       </c>
       <c r="AD4" s="41"/>
       <c r="AE4" s="42"/>
-      <c r="AF4" s="33" t="s">
+      <c r="AF4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="33" t="s">
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="31"/>
     </row>
     <row r="5" spans="1:37" ht="12">
       <c r="A5" s="40"/>
@@ -4561,12 +4564,12 @@
       <c r="AC5" s="46"/>
       <c r="AD5" s="43"/>
       <c r="AE5" s="44"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="38"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="34"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -4711,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -4752,7 +4755,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -4831,7 +4834,7 @@
       <c r="R12" s="10"/>
       <c r="S12" s="9"/>
       <c r="U12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -4998,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
@@ -5039,7 +5042,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
@@ -5121,7 +5124,7 @@
         <v>2</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
@@ -5162,7 +5165,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
@@ -5989,61 +5992,61 @@
       <c r="AK42" s="16"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="33" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="33" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="33" t="s">
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N43" s="35"/>
-      <c r="O43" s="33" t="s">
+      <c r="N43" s="31"/>
+      <c r="O43" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="32" t="s">
+      <c r="P43" s="31"/>
+      <c r="Q43" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R43" s="32"/>
-      <c r="S43" s="33" t="s">
+      <c r="R43" s="28"/>
+      <c r="S43" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="T43" s="34"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="33" t="s">
+      <c r="T43" s="30"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W43" s="34"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="33" t="s">
+      <c r="W43" s="30"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="35"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="30"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="30"/>
+      <c r="AJ43" s="30"/>
+      <c r="AK43" s="31"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -6052,43 +6055,43 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
-      <c r="AJ44" s="37"/>
-      <c r="AK44" s="38"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="33"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="33"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="33"/>
+      <c r="AE44" s="33"/>
+      <c r="AF44" s="33"/>
+      <c r="AG44" s="33"/>
+      <c r="AH44" s="33"/>
+      <c r="AI44" s="33"/>
+      <c r="AJ44" s="33"/>
+      <c r="AK44" s="34"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -6097,61 +6100,61 @@
       <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="29">
+      <c r="A45" s="25">
         <v>1</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="29" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="30"/>
-      <c r="O45" s="29">
+      <c r="N45" s="26"/>
+      <c r="O45" s="25">
         <v>128</v>
       </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="32" t="s">
+      <c r="P45" s="26"/>
+      <c r="Q45" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="32"/>
-      <c r="S45" s="29" t="s">
+      <c r="R45" s="28"/>
+      <c r="S45" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="31"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="29" t="s">
+      <c r="T45" s="27"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="31"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="30"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="58"/>
+      <c r="AI45" s="58"/>
+      <c r="AJ45" s="58"/>
+      <c r="AK45" s="59"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -6160,61 +6163,61 @@
       <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="29">
+      <c r="A46" s="25">
         <v>2</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="29" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="30"/>
-      <c r="O46" s="29">
+      <c r="N46" s="26"/>
+      <c r="O46" s="25">
         <v>128</v>
       </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="32" t="s">
+      <c r="P46" s="26"/>
+      <c r="Q46" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="32"/>
-      <c r="S46" s="29" t="s">
+      <c r="R46" s="28"/>
+      <c r="S46" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="31"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="29" t="s">
+      <c r="T46" s="27"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W46" s="31"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="30"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z46" s="58"/>
+      <c r="AA46" s="58"/>
+      <c r="AB46" s="58"/>
+      <c r="AC46" s="58"/>
+      <c r="AD46" s="58"/>
+      <c r="AE46" s="58"/>
+      <c r="AF46" s="58"/>
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="58"/>
+      <c r="AI46" s="58"/>
+      <c r="AJ46" s="58"/>
+      <c r="AK46" s="59"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -6223,61 +6226,61 @@
       <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="29">
+      <c r="A47" s="25">
         <v>2</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="29" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="29" t="s">
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="26"/>
+      <c r="O47" s="25">
+        <v>128</v>
+      </c>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="28"/>
+      <c r="S47" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="T47" s="27"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="29">
-        <v>128</v>
-      </c>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="R47" s="32"/>
-      <c r="S47" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T47" s="31"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="29" t="s">
+      <c r="W47" s="27"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="W47" s="31"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="30"/>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="58"/>
+      <c r="AC47" s="58"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="58"/>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
+      <c r="AH47" s="58"/>
+      <c r="AI47" s="58"/>
+      <c r="AJ47" s="58"/>
+      <c r="AK47" s="59"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -6286,61 +6289,61 @@
       <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="29">
+      <c r="A48" s="25">
         <v>3</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="29" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="N48" s="30"/>
-      <c r="O48" s="29" t="s">
+      <c r="N48" s="26"/>
+      <c r="O48" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="32" t="s">
+      <c r="P48" s="26"/>
+      <c r="Q48" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="32"/>
-      <c r="S48" s="29" t="s">
+      <c r="R48" s="28"/>
+      <c r="S48" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="31"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="29" t="s">
+      <c r="T48" s="27"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W48" s="31"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
-      <c r="AK48" s="30"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="58"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="58"/>
+      <c r="AF48" s="58"/>
+      <c r="AG48" s="58"/>
+      <c r="AH48" s="58"/>
+      <c r="AI48" s="58"/>
+      <c r="AJ48" s="58"/>
+      <c r="AK48" s="59"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -6349,61 +6352,61 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="29">
+      <c r="A49" s="25">
         <v>4</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="N49" s="30"/>
-      <c r="O49" s="29">
+      <c r="B49" s="26"/>
+      <c r="C49" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" s="26"/>
+      <c r="O49" s="25">
         <v>128</v>
       </c>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="29" t="s">
+      <c r="P49" s="26"/>
+      <c r="Q49" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="30"/>
-      <c r="S49" s="29" t="s">
+      <c r="R49" s="26"/>
+      <c r="S49" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="31"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="29" t="s">
+      <c r="T49" s="27"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W49" s="31"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="31"/>
-      <c r="AG49" s="31"/>
-      <c r="AH49" s="31"/>
-      <c r="AI49" s="31"/>
-      <c r="AJ49" s="31"/>
-      <c r="AK49" s="30"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="58"/>
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="58"/>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="58"/>
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="58"/>
+      <c r="AI49" s="58"/>
+      <c r="AJ49" s="58"/>
+      <c r="AK49" s="59"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -6412,61 +6415,61 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="29">
+      <c r="A50" s="25">
         <v>5</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="29" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="30"/>
-      <c r="O50" s="29" t="s">
+      <c r="N50" s="26"/>
+      <c r="O50" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="32" t="s">
+      <c r="P50" s="26"/>
+      <c r="Q50" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="32"/>
-      <c r="S50" s="29" t="s">
+      <c r="R50" s="28"/>
+      <c r="S50" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T50" s="31"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="29" t="s">
+      <c r="T50" s="27"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="W50" s="31"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="31"/>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="31"/>
-      <c r="AG50" s="31"/>
-      <c r="AH50" s="31"/>
-      <c r="AI50" s="31"/>
-      <c r="AJ50" s="31"/>
-      <c r="AK50" s="30"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z50" s="58"/>
+      <c r="AA50" s="58"/>
+      <c r="AB50" s="58"/>
+      <c r="AC50" s="58"/>
+      <c r="AD50" s="58"/>
+      <c r="AE50" s="58"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="58"/>
+      <c r="AI50" s="58"/>
+      <c r="AJ50" s="58"/>
+      <c r="AK50" s="59"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
@@ -6475,61 +6478,61 @@
       <c r="AQ50" s="24"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="29">
+      <c r="A51" s="25">
         <v>6</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="29" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="30"/>
-      <c r="O51" s="29" t="s">
+      <c r="N51" s="26"/>
+      <c r="O51" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="32" t="s">
+      <c r="P51" s="26"/>
+      <c r="Q51" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="32"/>
-      <c r="S51" s="29" t="s">
+      <c r="R51" s="28"/>
+      <c r="S51" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="T51" s="31"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="W51" s="31"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="30"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="W51" s="27"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z51" s="58"/>
+      <c r="AA51" s="58"/>
+      <c r="AB51" s="58"/>
+      <c r="AC51" s="58"/>
+      <c r="AD51" s="58"/>
+      <c r="AE51" s="58"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="58"/>
+      <c r="AH51" s="58"/>
+      <c r="AI51" s="58"/>
+      <c r="AJ51" s="58"/>
+      <c r="AK51" s="59"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
@@ -6538,43 +6541,43 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="31"/>
-      <c r="AD52" s="31"/>
-      <c r="AE52" s="31"/>
-      <c r="AF52" s="31"/>
-      <c r="AG52" s="31"/>
-      <c r="AH52" s="31"/>
-      <c r="AI52" s="31"/>
-      <c r="AJ52" s="31"/>
-      <c r="AK52" s="30"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="27"/>
+      <c r="AD52" s="27"/>
+      <c r="AE52" s="27"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="27"/>
+      <c r="AH52" s="27"/>
+      <c r="AI52" s="27"/>
+      <c r="AJ52" s="27"/>
+      <c r="AK52" s="26"/>
       <c r="AL52" s="24"/>
       <c r="AM52" s="24"/>
       <c r="AN52" s="24"/>
@@ -6583,43 +6586,43 @@
       <c r="AQ52" s="24"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="31"/>
-      <c r="X53" s="30"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="31"/>
-      <c r="AC53" s="31"/>
-      <c r="AD53" s="31"/>
-      <c r="AE53" s="31"/>
-      <c r="AF53" s="31"/>
-      <c r="AG53" s="31"/>
-      <c r="AH53" s="31"/>
-      <c r="AI53" s="31"/>
-      <c r="AJ53" s="31"/>
-      <c r="AK53" s="30"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="26"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="27"/>
+      <c r="AI53" s="27"/>
+      <c r="AJ53" s="27"/>
+      <c r="AK53" s="26"/>
       <c r="AL53" s="24"/>
       <c r="AM53" s="24"/>
       <c r="AN53" s="24"/>
@@ -6628,43 +6631,43 @@
       <c r="AQ53" s="24"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="31"/>
-      <c r="X54" s="30"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="31"/>
-      <c r="AB54" s="31"/>
-      <c r="AC54" s="31"/>
-      <c r="AD54" s="31"/>
-      <c r="AE54" s="31"/>
-      <c r="AF54" s="31"/>
-      <c r="AG54" s="31"/>
-      <c r="AH54" s="31"/>
-      <c r="AI54" s="31"/>
-      <c r="AJ54" s="31"/>
-      <c r="AK54" s="30"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="26"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="27"/>
+      <c r="AG54" s="27"/>
+      <c r="AH54" s="27"/>
+      <c r="AI54" s="27"/>
+      <c r="AJ54" s="27"/>
+      <c r="AK54" s="26"/>
       <c r="AL54" s="24"/>
       <c r="AM54" s="24"/>
       <c r="AN54" s="24"/>
@@ -6673,338 +6676,214 @@
       <c r="AQ54" s="24"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="53"/>
-      <c r="Z55" s="55"/>
-      <c r="AA55" s="55"/>
-      <c r="AB55" s="55"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="55"/>
-      <c r="AE55" s="55"/>
-      <c r="AF55" s="55"/>
-      <c r="AG55" s="55"/>
-      <c r="AH55" s="55"/>
-      <c r="AI55" s="55"/>
-      <c r="AJ55" s="55"/>
-      <c r="AK55" s="54"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="37"/>
+      <c r="AI55" s="37"/>
+      <c r="AJ55" s="37"/>
+      <c r="AK55" s="36"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="53"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="53"/>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="55"/>
-      <c r="AB56" s="55"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="55"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="55"/>
-      <c r="AG56" s="55"/>
-      <c r="AH56" s="55"/>
-      <c r="AI56" s="55"/>
-      <c r="AJ56" s="55"/>
-      <c r="AK56" s="54"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="37"/>
+      <c r="AE56" s="37"/>
+      <c r="AF56" s="37"/>
+      <c r="AG56" s="37"/>
+      <c r="AH56" s="37"/>
+      <c r="AI56" s="37"/>
+      <c r="AJ56" s="37"/>
+      <c r="AK56" s="36"/>
     </row>
     <row r="57" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A57" s="53"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="53"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="56"/>
-      <c r="W57" s="56"/>
-      <c r="X57" s="56"/>
-      <c r="Y57" s="53"/>
-      <c r="Z57" s="55"/>
-      <c r="AA57" s="55"/>
-      <c r="AB57" s="55"/>
-      <c r="AC57" s="55"/>
-      <c r="AD57" s="55"/>
-      <c r="AE57" s="55"/>
-      <c r="AF57" s="55"/>
-      <c r="AG57" s="55"/>
-      <c r="AH57" s="55"/>
-      <c r="AI57" s="55"/>
-      <c r="AJ57" s="55"/>
-      <c r="AK57" s="54"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
+      <c r="AB57" s="37"/>
+      <c r="AC57" s="37"/>
+      <c r="AD57" s="37"/>
+      <c r="AE57" s="37"/>
+      <c r="AF57" s="37"/>
+      <c r="AG57" s="37"/>
+      <c r="AH57" s="37"/>
+      <c r="AI57" s="37"/>
+      <c r="AJ57" s="37"/>
+      <c r="AK57" s="36"/>
     </row>
     <row r="58" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A58" s="53"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="53"/>
-      <c r="T58" s="55"/>
-      <c r="U58" s="55"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="53"/>
-      <c r="Z58" s="55"/>
-      <c r="AA58" s="55"/>
-      <c r="AB58" s="55"/>
-      <c r="AC58" s="55"/>
-      <c r="AD58" s="55"/>
-      <c r="AE58" s="55"/>
-      <c r="AF58" s="55"/>
-      <c r="AG58" s="55"/>
-      <c r="AH58" s="55"/>
-      <c r="AI58" s="55"/>
-      <c r="AJ58" s="55"/>
-      <c r="AK58" s="54"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="37"/>
+      <c r="AA58" s="37"/>
+      <c r="AB58" s="37"/>
+      <c r="AC58" s="37"/>
+      <c r="AD58" s="37"/>
+      <c r="AE58" s="37"/>
+      <c r="AF58" s="37"/>
+      <c r="AG58" s="37"/>
+      <c r="AH58" s="37"/>
+      <c r="AI58" s="37"/>
+      <c r="AJ58" s="37"/>
+      <c r="AK58" s="36"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A59" s="53"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="55"/>
-      <c r="V59" s="56"/>
-      <c r="W59" s="56"/>
-      <c r="X59" s="56"/>
-      <c r="Y59" s="53"/>
-      <c r="Z59" s="55"/>
-      <c r="AA59" s="55"/>
-      <c r="AB59" s="55"/>
-      <c r="AC59" s="55"/>
-      <c r="AD59" s="55"/>
-      <c r="AE59" s="55"/>
-      <c r="AF59" s="55"/>
-      <c r="AG59" s="55"/>
-      <c r="AH59" s="55"/>
-      <c r="AI59" s="55"/>
-      <c r="AJ59" s="55"/>
-      <c r="AK59" s="54"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
+      <c r="AK59" s="36"/>
     </row>
     <row r="62" spans="1:43" ht="12.75" customHeight="1">
       <c r="B62" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y43:AK44"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="S43:U44"/>
-    <mergeCell ref="V43:X44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AK59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AK58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AK57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="I45:L45"/>
@@ -7025,15 +6904,139 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AK57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AK58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AK59"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="S43:U44"/>
+    <mergeCell ref="V43:X44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y43:AK44"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AK46"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
